--- a/data_year/zb/建筑业/劳务分包建筑业企业主要指标.xlsx
+++ b/data_year/zb/建筑业/劳务分包建筑业企业主要指标.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,220 +473,80 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1827362.2</v>
+        <v>9350526</v>
       </c>
       <c r="C2" t="n">
-        <v>1006214.3</v>
+        <v>5078280</v>
       </c>
       <c r="D2" t="n">
-        <v>868165</v>
+        <v>2571402</v>
       </c>
       <c r="E2" t="n">
-        <v>60645.4</v>
+        <v>249365</v>
       </c>
       <c r="F2" t="n">
-        <v>3101</v>
+        <v>6835</v>
       </c>
       <c r="G2" t="n">
-        <v>58730.1</v>
+        <v>329432</v>
       </c>
       <c r="H2" t="n">
-        <v>1885213.4</v>
+        <v>9410455</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2494581</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1370682</v>
-      </c>
+        <v>12880878.1</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
       <c r="D3" t="n">
-        <v>1122421</v>
+        <v>2446940</v>
       </c>
       <c r="E3" t="n">
-        <v>63085.5</v>
+        <v>300347.9</v>
       </c>
       <c r="F3" t="n">
-        <v>3748</v>
+        <v>6443</v>
       </c>
       <c r="G3" t="n">
-        <v>80382.10000000001</v>
+        <v>470164.7</v>
       </c>
       <c r="H3" t="n">
-        <v>2537630.1</v>
+        <v>12974100.5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3740105.4</v>
-      </c>
-      <c r="C4" t="n">
-        <v>2175533.3</v>
-      </c>
+        <v>16150428.1</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>1478604</v>
+        <v>2680307</v>
       </c>
       <c r="E4" t="n">
-        <v>80971.10000000001</v>
+        <v>318013.6</v>
       </c>
       <c r="F4" t="n">
-        <v>4357</v>
+        <v>6606</v>
       </c>
       <c r="G4" t="n">
-        <v>117449.7</v>
+        <v>588103.7</v>
       </c>
       <c r="H4" t="n">
-        <v>3789836.3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>2008年</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>6138676.2</v>
-      </c>
-      <c r="C5" t="n">
-        <v>3151758.8</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1895875</v>
-      </c>
-      <c r="E5" t="n">
-        <v>203167.9</v>
-      </c>
-      <c r="F5" t="n">
-        <v>6837</v>
-      </c>
-      <c r="G5" t="n">
-        <v>188406.6</v>
-      </c>
-      <c r="H5" t="n">
-        <v>6209880.4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>2009年</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>7390918.9</v>
-      </c>
-      <c r="C6" t="n">
-        <v>3920349</v>
-      </c>
-      <c r="D6" t="n">
-        <v>2152904</v>
-      </c>
-      <c r="E6" t="n">
-        <v>205687.8</v>
-      </c>
-      <c r="F6" t="n">
-        <v>6756</v>
-      </c>
-      <c r="G6" t="n">
-        <v>253118.5</v>
-      </c>
-      <c r="H6" t="n">
-        <v>7428736.4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>2010年</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>9350526</v>
-      </c>
-      <c r="C7" t="n">
-        <v>5078280</v>
-      </c>
-      <c r="D7" t="n">
-        <v>2571402</v>
-      </c>
-      <c r="E7" t="n">
-        <v>249365</v>
-      </c>
-      <c r="F7" t="n">
-        <v>6835</v>
-      </c>
-      <c r="G7" t="n">
-        <v>329432</v>
-      </c>
-      <c r="H7" t="n">
-        <v>9410455</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>2011年</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>12880878.1</v>
-      </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="n">
-        <v>2446940</v>
-      </c>
-      <c r="E8" t="n">
-        <v>300347.9</v>
-      </c>
-      <c r="F8" t="n">
-        <v>6443</v>
-      </c>
-      <c r="G8" t="n">
-        <v>470164.7</v>
-      </c>
-      <c r="H8" t="n">
-        <v>12974100.5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>16150428.1</v>
-      </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="n">
-        <v>2680307</v>
-      </c>
-      <c r="E9" t="n">
-        <v>318013.6</v>
-      </c>
-      <c r="F9" t="n">
-        <v>6606</v>
-      </c>
-      <c r="G9" t="n">
-        <v>588103.7</v>
-      </c>
-      <c r="H9" t="n">
         <v>16376552</v>
       </c>
     </row>
